--- a/PRODUCTOS/muestras_resultantes.xlsx
+++ b/PRODUCTOS/muestras_resultantes.xlsx
@@ -1,139 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollambo\Desktop\GRUPO ENIGHUR\ENIGHUR\PRODUCTOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t xml:space="preserve">dominio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_predefinida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_insumos_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_3_grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_4_grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azuay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolívar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cañar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotopaxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimborazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esmeraldas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guayas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbabura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Rios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manabí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morona Santiago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pichincha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungurahua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zamora Chinchipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galápagos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucumbíos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orellana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santo Domingo de los Tsachilas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Elena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guayaquil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuenca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esmeraldas Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santo Domingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loja Ciudad</t>
+    <t>dominio</t>
+  </si>
+  <si>
+    <t>n_predefinida</t>
+  </si>
+  <si>
+    <t>n_insumos_2012</t>
+  </si>
+  <si>
+    <t>n_3_grupos</t>
+  </si>
+  <si>
+    <t>n_4_grupos</t>
+  </si>
+  <si>
+    <t>Azuay</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Cañar</t>
+  </si>
+  <si>
+    <t>Carchi</t>
+  </si>
+  <si>
+    <t>Cotopaxi</t>
+  </si>
+  <si>
+    <t>Chimborazo</t>
+  </si>
+  <si>
+    <t>El Oro</t>
+  </si>
+  <si>
+    <t>Esmeraldas</t>
+  </si>
+  <si>
+    <t>Guayas</t>
+  </si>
+  <si>
+    <t>Imbabura</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Los Rios</t>
+  </si>
+  <si>
+    <t>Manabí</t>
+  </si>
+  <si>
+    <t>Morona Santiago</t>
+  </si>
+  <si>
+    <t>Napo</t>
+  </si>
+  <si>
+    <t>Pastaza</t>
+  </si>
+  <si>
+    <t>Pichincha</t>
+  </si>
+  <si>
+    <t>Tungurahua</t>
+  </si>
+  <si>
+    <t>Zamora Chinchipe</t>
+  </si>
+  <si>
+    <t>Galápagos</t>
+  </si>
+  <si>
+    <t>Sucumbíos</t>
+  </si>
+  <si>
+    <t>Orellana</t>
+  </si>
+  <si>
+    <t>Santo Domingo de los Tsachilas</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>Machala</t>
+  </si>
+  <si>
+    <t>Ambato</t>
+  </si>
+  <si>
+    <t>Esmeraldas Ciudad</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>Loja Ciudad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +175,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,14 +465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,569 +497,569 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>62</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>222</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>107</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>60</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>121</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>73</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>190</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>190</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>108</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>79</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>202</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>202</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>139</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>53</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>64</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>64</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>122</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>98</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>122</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>122</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>123</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>84</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>107</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>107</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>80</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>184</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>89</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>50</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>69</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>211</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>103</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>58</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>96</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>352</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>90</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>51</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>108</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>62</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>64</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>60</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>152</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>174</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>99</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>57</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>102</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>68</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>68</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>48</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>259</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>96</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>54</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>119</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>77</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>135</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>195</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>122</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>28</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>19</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>27</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>122</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>52</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>54</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>53</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>297</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>80</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>45</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>47</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>211</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>138</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>120</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>76</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>99</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>142</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>104</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>48</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>170</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>170</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>121</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>84</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>55</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>121</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>73</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>54</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>56</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>153</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>64</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>105</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>63</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>92</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>92</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>149</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>178</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>177</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>177</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>223</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>202</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>185</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>185</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>111</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>145</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>176</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>176</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>90</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>136</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>144</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>144</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>87</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>153</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>245</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>245</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>75</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>157</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>159</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>159</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>94</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>136</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>155</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>155</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>108</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>147</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>114</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>114</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>90</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>150</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>185</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>